--- a/stem_resp/stem_resp meta_data.xlsx
+++ b/stem_resp/stem_resp meta_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Side_project\african_data_workshop\General\Dataset examples\stem_resp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Side_project\african_data_workshop\gem_code_examples\stem_resp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20BA9199-3C12-4827-83D8-2A4C9659ED1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F2E59C-C7FA-4CED-BF58-96F350C63291}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="108" yWindow="-19104" windowWidth="25332" windowHeight="17616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="respiration_soil_total meta_dat" sheetId="1" r:id="rId1"/>
@@ -88,9 +88,6 @@
     <t>This is actually input_E (see column E in the table) (one of the EGM output)</t>
   </si>
   <si>
-    <t>see column D, should be relative humidity</t>
-  </si>
-  <si>
     <t>This one could be used if you measure the same point (collar) twice, if you measure every point(collar) once, this should all be one.</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>a rowning number of each flux measurement, could be understood as time step (auto recorded  by EGM) (pls include as much as possible according to your EGM output)</t>
+  </si>
+  <si>
+    <t>see column D, should be relative change in CO2 ppm</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1011,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,28 +1035,28 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1081,10 +1081,10 @@
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1102,7 +1102,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1110,7 +1110,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -1145,7 +1145,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
